--- a/jst_rebuild/file/订单数据.xlsx
+++ b/jst_rebuild/file/订单数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>来源渠道</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,19 +120,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2020-07-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2020-07-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-07-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
+    <t>2020-08-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-08-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -140,83 +160,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-07-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JJ69876</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JJ1094</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>468</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-07-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -586,7 +530,7 @@
     <col min="21" max="21" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -653,34 +597,25 @@
       <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>5353</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
@@ -698,239 +633,22 @@
         <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>5353</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
